--- a/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
+++ b/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Desktop\프로젝트\프로젝트\파이썬\전산반배정매크로\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC9CFCD-75C9-4777-ACE8-52B45E5FB2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442BBB7B-D701-43C2-8A5F-1C5C50DF2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24915" yWindow="1590" windowWidth="13290" windowHeight="14490" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
+    <workbookView xWindow="46590" yWindow="5055" windowWidth="25485" windowHeight="14490" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
   <si>
     <t>반</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,22 +129,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문가율</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <t>김민영</t>
+  </si>
+  <si>
+    <t>김보나</t>
+  </si>
+  <si>
+    <t>서정인</t>
+  </si>
+  <si>
+    <t>신하진</t>
+  </si>
+  <si>
+    <t>김인아</t>
+  </si>
+  <si>
+    <t>문가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sejongslos</t>
+  </si>
+  <si>
+    <t>iyeseoxoxs</t>
+  </si>
+  <si>
+    <t>dopefashio</t>
+  </si>
+  <si>
+    <t>megakpop</t>
+  </si>
+  <si>
+    <t>inspirereq</t>
+  </si>
+  <si>
+    <t>shiningfit</t>
+  </si>
+  <si>
+    <t>hyperfitne</t>
+  </si>
+  <si>
+    <t>chillbruhs</t>
+  </si>
+  <si>
+    <t>박민솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodperiod</t>
+  </si>
+  <si>
+    <t>famsummer</t>
+  </si>
+  <si>
+    <t>travelteen</t>
+  </si>
+  <si>
+    <t>mollysaets</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>goatsaetsk</t>
+  </si>
+  <si>
+    <t>hyperslosh</t>
+  </si>
+  <si>
+    <t>periodtsae</t>
+  </si>
+  <si>
+    <t>이율아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctorteen</t>
+  </si>
+  <si>
+    <t>inspirefas</t>
+  </si>
+  <si>
+    <t>fashionsum</t>
+  </si>
+  <si>
+    <t>memoriesna</t>
+  </si>
+  <si>
+    <t>coolzombie</t>
+  </si>
+  <si>
+    <t>maxtbhrush</t>
+  </si>
+  <si>
+    <t>sloshedsta</t>
+  </si>
+  <si>
+    <t>iyeseoxoxm</t>
+  </si>
+  <si>
+    <t>maxnoob</t>
+  </si>
+  <si>
+    <t>whiz</t>
+  </si>
+  <si>
+    <t>김유은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lovegirl</t>
+  </si>
+  <si>
+    <t>박주은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dopestyleg</t>
+  </si>
+  <si>
+    <t>hypersnatc</t>
+  </si>
+  <si>
+    <t>inspirebru</t>
+  </si>
+  <si>
+    <t>정세희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dopebruhni</t>
+  </si>
+  <si>
+    <t>epicghosti</t>
+  </si>
+  <si>
+    <t>sunshinebr</t>
+  </si>
+  <si>
+    <t>nocapteen</t>
+  </si>
+  <si>
+    <t>nightgoani</t>
+  </si>
+  <si>
+    <t>maxsnatche</t>
+  </si>
+  <si>
+    <t>freeguccia</t>
+  </si>
+  <si>
+    <t>chillreque</t>
+  </si>
+  <si>
+    <t>조아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicnatur</t>
+  </si>
+  <si>
+    <t>litdaygerk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -156,7 +310,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -168,7 +322,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -180,7 +334,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -192,7 +346,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -204,7 +358,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -216,7 +370,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -228,25 +382,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박민솔</t>
-    </r>
-  </si>
-  <si>
-    <t>김민영</t>
-  </si>
-  <si>
-    <t>김보나</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -258,7 +394,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -270,7 +406,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -282,7 +418,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -294,7 +430,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -306,7 +442,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -318,19 +454,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이율아</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -342,7 +466,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -354,7 +478,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -366,7 +490,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -375,13 +499,10 @@
     </r>
   </si>
   <si>
-    <t>서정인</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -393,7 +514,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -405,7 +526,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -417,7 +538,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -429,31 +550,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>김유은</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박주은</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -465,7 +562,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -477,19 +574,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정세희</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -498,13 +583,10 @@
     </r>
   </si>
   <si>
-    <t>신하진</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -513,13 +595,10 @@
     </r>
   </si>
   <si>
-    <t>김인아</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -531,7 +610,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -543,7 +622,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
@@ -555,20 +634,180 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조아라</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최우주</t>
+    </r>
+  </si>
+  <si>
+    <t>MW_teacher04</t>
+  </si>
+  <si>
+    <t>MW_teacher01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW_teacher02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW_teacher03</t>
+  </si>
+  <si>
+    <t>MW_teacher05</t>
+  </si>
+  <si>
+    <t>MW_teacher06</t>
+  </si>
+  <si>
+    <t>MW_teacher07</t>
+  </si>
+  <si>
+    <t>MW_teacher08</t>
+  </si>
+  <si>
+    <t>MW_teacher09</t>
+  </si>
+  <si>
+    <t>MW_teacher10</t>
+  </si>
+  <si>
+    <t>MW_teacher11</t>
+  </si>
+  <si>
+    <t>MW_teacher12</t>
+  </si>
+  <si>
+    <t>MW_teacher13</t>
+  </si>
+  <si>
+    <t>MW_teacher14</t>
+  </si>
+  <si>
+    <t>MW_teacher15</t>
+  </si>
+  <si>
+    <t>MW_teacher16</t>
+  </si>
+  <si>
+    <t>MW_teacher17</t>
+  </si>
+  <si>
+    <t>MW_teacher18</t>
+  </si>
+  <si>
+    <t>MW_teacher19</t>
+  </si>
+  <si>
+    <t>MW_teacher20</t>
+  </si>
+  <si>
+    <t>MW_teacher21</t>
+  </si>
+  <si>
+    <t>MW_teacher22</t>
+  </si>
+  <si>
+    <t>MW_teacher23</t>
+  </si>
+  <si>
+    <t>MW_teacher24</t>
+  </si>
+  <si>
+    <t>MW_teacher25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_teacher01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_teacher02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_teacher03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_teacher04</t>
+  </si>
+  <si>
+    <t>TT_teacher05</t>
+  </si>
+  <si>
+    <t>TT_teacher06</t>
+  </si>
+  <si>
+    <t>TT_teacher07</t>
+  </si>
+  <si>
+    <t>TT_teacher08</t>
+  </si>
+  <si>
+    <t>TT_teacher09</t>
+  </si>
+  <si>
+    <t>TT_teacher10</t>
+  </si>
+  <si>
+    <t>TT_teacher11</t>
+  </si>
+  <si>
+    <t>TT_teacher12</t>
+  </si>
+  <si>
+    <t>TT_teacher13</t>
+  </si>
+  <si>
+    <t>TT_teacher14</t>
+  </si>
+  <si>
+    <t>TT_teacher15</t>
+  </si>
+  <si>
+    <t>TT_teacher16</t>
+  </si>
+  <si>
+    <t>TT_teacher17</t>
+  </si>
+  <si>
+    <t>TT_teacher18</t>
+  </si>
+  <si>
+    <t>TT_teacher19</t>
+  </si>
+  <si>
+    <t>TT_teacher20</t>
+  </si>
+  <si>
+    <t>TT_teacher21</t>
+  </si>
+  <si>
+    <t>TT_teacher22</t>
+  </si>
+  <si>
+    <t>TT_teacher23</t>
+  </si>
+  <si>
+    <t>TT_teacher24</t>
+  </si>
+  <si>
+    <t>TT_teacher25</t>
+  </si>
+  <si>
+    <t>최우주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,37 +825,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -648,144 +875,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1095,491 +1205,1345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C812-49C8-4B1F-A174-5CCCCB262BE4}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17">
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17">
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17">
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17">
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17">
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17">
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17">
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17">
+      <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17">
+      <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17">
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17">
+      <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17">
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17">
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17">
+      <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17">
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17">
+      <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17">
+      <c r="F37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17">
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17">
+      <c r="F39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17">
+      <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17">
+      <c r="F41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17">
+      <c r="F42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17">
+      <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="3" t="s">
+      <c r="G43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17">
+      <c r="F44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17">
+      <c r="F45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="3" t="s">
+      <c r="K45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17">
+      <c r="F46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17">
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="3" t="s">
-        <v>65</v>
+      <c r="K47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17">
+      <c r="F48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="6:17">
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="6:17">
+      <c r="F50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="6:17">
+      <c r="F51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="6:17">
+      <c r="F52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C16">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C20">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C49">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{85D9AD69-E220-40AE-970F-9B86D1A4DDBE}"/>
+    <hyperlink ref="G14" r:id="rId2" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{08DDB022-524E-4AC5-83C7-21E1973873EE}"/>
+    <hyperlink ref="G15" r:id="rId3" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{31C4D32E-729F-4CC0-9770-87B90EC64FEA}"/>
+    <hyperlink ref="G16" r:id="rId4" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{E7B26D57-D929-4BB6-9D30-5439D0D1D953}"/>
+    <hyperlink ref="G17" r:id="rId5" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{77325675-10BB-413A-8A42-E6E708A9D9D6}"/>
+    <hyperlink ref="G18" r:id="rId6" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5CF8877F-5CD1-4F6A-A48E-F97BBA1CE37A}"/>
+    <hyperlink ref="G19" r:id="rId7" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{764484AD-A7DA-4C62-9807-492FEEE40A6E}"/>
+    <hyperlink ref="G20" r:id="rId8" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{2C058B80-6B9E-43CB-8A55-FE700B9A05DA}"/>
+    <hyperlink ref="G22" r:id="rId9" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{719FF935-6465-4493-A7A3-07D183555CB2}"/>
+    <hyperlink ref="G23" r:id="rId10" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{EFF6E1EE-FC99-4267-ACD8-57DA760FFE9D}"/>
+    <hyperlink ref="G24" r:id="rId11" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D2E12E08-6268-4B27-B4F7-96FF5ADD93DD}"/>
+    <hyperlink ref="G25" r:id="rId12" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D0725A3A-06C2-4576-8FA8-DE97EE1C14FB}"/>
+    <hyperlink ref="G26" r:id="rId13" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{74A55885-03B4-4DF0-B42F-46B600B6AAA0}"/>
+    <hyperlink ref="G27" r:id="rId14" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B3F02BCC-E9DE-49F9-A7E5-456321E56A10}"/>
+    <hyperlink ref="G28" r:id="rId15" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{0AF61754-9AEA-492B-82F0-B4F7C1154F70}"/>
+    <hyperlink ref="G29" r:id="rId16" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{A92F19E4-A737-415F-8F6D-012AC1BD8E13}"/>
+    <hyperlink ref="G30" r:id="rId17" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{E35FCA89-208D-42EC-B483-CEECDBE8D67A}"/>
+    <hyperlink ref="G31" r:id="rId18" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{1307E143-FBE7-46E2-9230-6A12E7FC471A}"/>
+    <hyperlink ref="G32" r:id="rId19" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{2FC22236-203D-415F-AF1D-DE4653DDFF99}"/>
+    <hyperlink ref="G33" r:id="rId20" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{465E2DEF-BE5B-43C3-9A50-1C2EA280DBD5}"/>
+    <hyperlink ref="G34" r:id="rId21" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{F5C038C0-BA70-48E1-9618-E6C9A44B34A3}"/>
+    <hyperlink ref="G35" r:id="rId22" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{4B04453C-CDAB-4442-A6CE-C5C98CFCA841}"/>
+    <hyperlink ref="G36" r:id="rId23" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{70CE7618-FA3B-4DD9-A249-90AE1C5DC4B7}"/>
+    <hyperlink ref="G37" r:id="rId24" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B96E292C-0828-4700-B0A3-B20CEBB4FB8F}"/>
+    <hyperlink ref="G38" r:id="rId25" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{1B8E64A2-E968-47D8-A339-AEDCFFC0FA19}"/>
+    <hyperlink ref="G39" r:id="rId26" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{EFF192BF-540D-4157-93D3-07B6DE2B0B13}"/>
+    <hyperlink ref="G40" r:id="rId27" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{FD89550C-6F7C-40BA-97A8-0EE0B97332A0}"/>
+    <hyperlink ref="G42" r:id="rId28" display="javascript:popMemReg('inspirebru')" xr:uid="{3250B369-0BD4-47E9-B560-F5D53A50BE9F}"/>
+    <hyperlink ref="G43" r:id="rId29" display="javascript:popMemReg('dopebruhni')" xr:uid="{43F9C44D-FC93-4C08-B1A1-542BC72CCBC9}"/>
+    <hyperlink ref="G44" r:id="rId30" display="javascript:popMemReg('epicghosti')" xr:uid="{332B6B3F-FFB9-4D43-A0E7-171117433BCE}"/>
+    <hyperlink ref="G45" r:id="rId31" display="javascript:popMemReg('sunshinebr')" xr:uid="{743CEEF4-7A93-40A2-A27D-8B454F273D62}"/>
+    <hyperlink ref="G46" r:id="rId32" display="javascript:popMemReg('nocapteen')" xr:uid="{0444EBA2-18D2-42CA-8D09-B7E21525B97A}"/>
+    <hyperlink ref="G47" r:id="rId33" display="javascript:popMemReg('nightgoani')" xr:uid="{9E89F209-C059-46BE-9AEB-4F8EB8B4CABA}"/>
+    <hyperlink ref="G48" r:id="rId34" display="javascript:popMemReg('maxsnatche')" xr:uid="{C25D69A0-E977-4C1C-A85C-59FE9139687E}"/>
+    <hyperlink ref="G49" r:id="rId35" display="javascript:popMemReg('freeguccia')" xr:uid="{6A2C0645-EBBA-439A-8AE1-2DF826123B45}"/>
+    <hyperlink ref="G50" r:id="rId36" display="javascript:popMemReg('chillreque')" xr:uid="{527A5018-564A-4EAC-BD08-D4315C518121}"/>
+    <hyperlink ref="G51" r:id="rId37" display="javascript:popMemReg('musicnatur')" xr:uid="{DF4A466A-9BD9-4323-B1C4-EF2844B0BF76}"/>
+    <hyperlink ref="G52" r:id="rId38" display="javascript:popMemReg('litdaygerk')" xr:uid="{FA9211BE-8F2A-499A-9DD9-86928BAF8A84}"/>
+    <hyperlink ref="L13" r:id="rId39" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B58CD81F-13E3-4BE2-86B8-6139471AF359}"/>
+    <hyperlink ref="L14" r:id="rId40" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{738BBA05-14A8-4354-ABA2-F898275D4880}"/>
+    <hyperlink ref="L15" r:id="rId41" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{33151983-16FC-4FF6-94E4-7809C78ABEC1}"/>
+    <hyperlink ref="L16" r:id="rId42" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{8B408ACF-DCE4-4975-8005-C0F5FBE3CB0B}"/>
+    <hyperlink ref="L17" r:id="rId43" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5DE45B68-3E93-4EFA-A3A0-394BBE99281D}"/>
+    <hyperlink ref="L18" r:id="rId44" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{4F52E48F-2047-485B-AFC2-D1E2A7C42EDD}"/>
+    <hyperlink ref="L19" r:id="rId45" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{17D0342F-5195-48E4-8037-8484269C1A7C}"/>
+    <hyperlink ref="L20" r:id="rId46" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{CFC9B93E-F2F0-4582-93BE-942FDBCDFD10}"/>
+    <hyperlink ref="L22" r:id="rId47" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B3F7CBD2-E8A9-49A9-9D61-C7D37159BDEA}"/>
+    <hyperlink ref="L23" r:id="rId48" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D2D75F51-D9F8-4951-899F-AA3365448928}"/>
+    <hyperlink ref="L24" r:id="rId49" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{313B6F88-485A-42AB-8256-509D38C0F72F}"/>
+    <hyperlink ref="L25" r:id="rId50" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D8CEFA9D-DFCC-4DD3-BAB8-98B03F7FBF79}"/>
+    <hyperlink ref="L26" r:id="rId51" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{0841A410-6798-425D-9894-EB8C75B68681}"/>
+    <hyperlink ref="L27" r:id="rId52" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5DA384CA-729B-4B72-8FF5-92ABD2715DE7}"/>
+    <hyperlink ref="L28" r:id="rId53" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{7F5FEE0A-C85E-405B-9E5F-2CF848887860}"/>
+    <hyperlink ref="L29" r:id="rId54" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{25081A2B-F01F-4D24-B8BC-7E622E061622}"/>
+    <hyperlink ref="L30" r:id="rId55" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D4C5210B-B9A1-4BD9-BDA6-FF681D5AD7A0}"/>
+    <hyperlink ref="L31" r:id="rId56" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{DE5CF3BD-6539-4AFC-ACB0-FDA8D87D9E61}"/>
+    <hyperlink ref="L32" r:id="rId57" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5C830084-413D-4863-8174-807D210F642C}"/>
+    <hyperlink ref="L33" r:id="rId58" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{BA4196ED-877D-4A69-9F7B-5C7D7650F3C2}"/>
+    <hyperlink ref="L34" r:id="rId59" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{3471A2DA-97FD-4A11-AB1E-D0185D4A1996}"/>
+    <hyperlink ref="L35" r:id="rId60" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{C10FBF00-DD96-4C84-A9E6-76C4895267E5}"/>
+    <hyperlink ref="L36" r:id="rId61" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{9FF61CFD-5BEF-40DB-B56D-9363ADA43AFE}"/>
+    <hyperlink ref="L37" r:id="rId62" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B6DFAA22-9685-4917-9560-0546B2BFCFC5}"/>
+    <hyperlink ref="L38" r:id="rId63" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{52603870-8767-46C8-9195-1BB721751186}"/>
+    <hyperlink ref="L39" r:id="rId64" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{487B3ECD-7E7B-4914-BA22-EB29E63CE6D2}"/>
+    <hyperlink ref="L40" r:id="rId65" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{16D5FC54-593C-4BB0-8F38-C20CCCFA6D44}"/>
+    <hyperlink ref="L42" r:id="rId66" display="javascript:popMemReg('inspirebru')" xr:uid="{05E91C90-8F85-4EBE-B69F-B6C378BC35E2}"/>
+    <hyperlink ref="L43" r:id="rId67" display="javascript:popMemReg('dopebruhni')" xr:uid="{9FB43A9B-CED1-4D5F-8794-84E07834DA1D}"/>
+    <hyperlink ref="L44" r:id="rId68" display="javascript:popMemReg('epicghosti')" xr:uid="{C8C5E945-958D-4784-A10A-C34B3113B98A}"/>
+    <hyperlink ref="L45" r:id="rId69" display="javascript:popMemReg('sunshinebr')" xr:uid="{E909DFEF-CD0F-45DC-B79D-D0CBA3EB9962}"/>
+    <hyperlink ref="L46" r:id="rId70" display="javascript:popMemReg('nocapteen')" xr:uid="{649A666F-21DC-4866-97A9-DD28E0FB2EC2}"/>
+    <hyperlink ref="L47" r:id="rId71" display="javascript:popMemReg('nightgoani')" xr:uid="{CE9743AF-4BC7-4F50-AD96-7DF5DBF1BE25}"/>
+    <hyperlink ref="L48" r:id="rId72" display="javascript:popMemReg('maxsnatche')" xr:uid="{87668DD6-BE2C-467A-A94C-C0C3B4C19C60}"/>
+    <hyperlink ref="L49" r:id="rId73" display="javascript:popMemReg('freeguccia')" xr:uid="{95C79314-3B38-41F4-B08E-AC1CCECCE5E9}"/>
+    <hyperlink ref="L50" r:id="rId74" display="javascript:popMemReg('chillreque')" xr:uid="{6DB57F10-0C96-4FBB-ADCB-1567C9F2BC18}"/>
+    <hyperlink ref="L51" r:id="rId75" display="javascript:popMemReg('musicnatur')" xr:uid="{AEDECEAD-4887-4ABC-9895-BDFC7D050B13}"/>
+    <hyperlink ref="L52" r:id="rId76" display="javascript:popMemReg('litdaygerk')" xr:uid="{58DFDC9F-76B9-4945-98A2-34C5D8E9BD57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
+++ b/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442BBB7B-D701-43C2-8A5F-1C5C50DF2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE71A6-4C79-4CA6-A5B7-7EBAC8E775C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46590" yWindow="5055" windowWidth="25485" windowHeight="14490" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="160">
   <si>
     <t>반</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,9 @@
   <si>
     <t>최우주</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testtest_03</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C812-49C8-4B1F-A174-5CCCCB262BE4}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1370,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
@@ -1393,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>16</v>
@@ -1416,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
@@ -1439,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>18</v>
@@ -1462,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>19</v>
@@ -1485,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
@@ -1508,7 +1511,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>21</v>
@@ -1531,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>32</v>
@@ -1554,7 +1557,7 @@
         <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>33</v>
@@ -1577,7 +1580,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>34</v>
@@ -1600,7 +1603,7 @@
         <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>35</v>
@@ -1623,7 +1626,7 @@
         <v>82</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>36</v>
@@ -1646,7 +1649,7 @@
         <v>83</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>37</v>
@@ -1669,7 +1672,7 @@
         <v>84</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>38</v>
@@ -1692,7 +1695,7 @@
         <v>85</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>39</v>
@@ -1715,7 +1718,7 @@
         <v>40</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>41</v>
@@ -1738,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>42</v>
@@ -1761,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>43</v>
@@ -1784,7 +1787,7 @@
         <v>86</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>44</v>
@@ -1807,7 +1810,7 @@
         <v>87</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>45</v>
@@ -1830,7 +1833,7 @@
         <v>88</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>46</v>
@@ -1853,7 +1856,7 @@
         <v>89</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>47</v>
@@ -1876,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>48</v>
@@ -1899,7 +1902,7 @@
         <v>91</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>49</v>
@@ -1922,7 +1925,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>51</v>
@@ -1945,7 +1948,7 @@
         <v>92</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>52</v>
@@ -1968,7 +1971,7 @@
         <v>93</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>53</v>
@@ -1991,7 +1994,7 @@
         <v>94</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>54</v>
@@ -2014,7 +2017,7 @@
         <v>95</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>55</v>
@@ -2037,7 +2040,7 @@
         <v>28</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>56</v>
@@ -2060,7 +2063,7 @@
         <v>96</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>57</v>
@@ -2083,7 +2086,7 @@
         <v>97</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>58</v>
@@ -2106,7 +2109,7 @@
         <v>98</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>59</v>
@@ -2129,7 +2132,7 @@
         <v>99</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>60</v>
@@ -2152,7 +2155,7 @@
         <v>61</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>62</v>
@@ -2175,7 +2178,7 @@
         <v>63</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>64</v>
@@ -2198,7 +2201,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>65</v>
@@ -2221,7 +2224,7 @@
         <v>101</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>66</v>
@@ -2244,7 +2247,7 @@
         <v>67</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>68</v>
@@ -2267,7 +2270,7 @@
         <v>102</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>69</v>
@@ -2290,7 +2293,7 @@
         <v>29</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>70</v>
@@ -2313,7 +2316,7 @@
         <v>103</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>71</v>
@@ -2336,7 +2339,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>72</v>
@@ -2359,7 +2362,7 @@
         <v>104</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>73</v>
@@ -2382,7 +2385,7 @@
         <v>105</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>74</v>
@@ -2405,7 +2408,7 @@
         <v>106</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>75</v>
@@ -2428,7 +2431,7 @@
         <v>76</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>77</v>
@@ -2451,7 +2454,7 @@
         <v>158</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>78</v>

--- a/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
+++ b/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE71A6-4C79-4CA6-A5B7-7EBAC8E775C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDA836-A41C-49D0-A91F-9E07094A49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="166">
   <si>
     <t>반</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,6 +804,30 @@
   </si>
   <si>
     <t>Testtest_03</t>
+  </si>
+  <si>
+    <t>nightcrash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chillbruhs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goatsaetsk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctorteen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1210,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C812-49C8-4B1F-A174-5CCCCB262BE4}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1459,7 +1483,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -1689,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>85</v>
@@ -1712,7 +1736,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>40</v>
@@ -1850,7 +1874,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>89</v>
@@ -1919,7 +1943,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>50</v>
@@ -2126,7 +2150,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>99</v>

--- a/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
+++ b/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDA836-A41C-49D0-A91F-9E07094A49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE2B60-C134-4BA1-823F-CA1070471717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{99D03DF8-BDAB-41B3-8B3B-546BC013E502}"/>
+    <workbookView xWindow="41970" yWindow="1365" windowWidth="25485" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="802">
   <si>
     <t>반</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +108,6 @@
   </si>
   <si>
     <t>Testtest_01</t>
-  </si>
-  <si>
-    <t>Testtest_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testtest_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김민영</t>
@@ -803,9 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Testtest_03</t>
-  </si>
-  <si>
     <t>nightcrash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,13 +806,1930 @@
   <si>
     <t>whiz</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahnjisu</t>
+  </si>
+  <si>
+    <t>a20110788</t>
+  </si>
+  <si>
+    <t>conggun</t>
+  </si>
+  <si>
+    <t>hosogo5</t>
+  </si>
+  <si>
+    <t>yjroh</t>
+  </si>
+  <si>
+    <t>jinwon1129</t>
+  </si>
+  <si>
+    <t>jjang1021</t>
+  </si>
+  <si>
+    <t>hsh20130427</t>
+  </si>
+  <si>
+    <t>withjoy</t>
+  </si>
+  <si>
+    <t>khb86950</t>
+  </si>
+  <si>
+    <t>khsss7</t>
+  </si>
+  <si>
+    <t>ijinseong391</t>
+  </si>
+  <si>
+    <t>jhmms</t>
+  </si>
+  <si>
+    <t>liryu1027</t>
+  </si>
+  <si>
+    <t>joy130808</t>
+  </si>
+  <si>
+    <t>onu130405</t>
+  </si>
+  <si>
+    <t>Sieun</t>
+  </si>
+  <si>
+    <t>kdh328232</t>
+  </si>
+  <si>
+    <t>sis0311</t>
+  </si>
+  <si>
+    <t>summer0816</t>
+  </si>
+  <si>
+    <t>nahw0214</t>
+  </si>
+  <si>
+    <t>gka0216</t>
+  </si>
+  <si>
+    <t>bomilike</t>
+  </si>
+  <si>
+    <t>loveyoon4868</t>
+  </si>
+  <si>
+    <t>danwoo1004</t>
+  </si>
+  <si>
+    <t>yjfa7070</t>
+  </si>
+  <si>
+    <t>young0624</t>
+  </si>
+  <si>
+    <t>jyj0417</t>
+  </si>
+  <si>
+    <t>harin0823</t>
+  </si>
+  <si>
+    <t>cutie</t>
+  </si>
+  <si>
+    <t>zzondu0220</t>
+  </si>
+  <si>
+    <t>LGH13</t>
+  </si>
+  <si>
+    <t>sjw1004</t>
+  </si>
+  <si>
+    <t>younja486</t>
+  </si>
+  <si>
+    <t>chooyy999</t>
+  </si>
+  <si>
+    <t>foodfiter</t>
+  </si>
+  <si>
+    <t>ldy131002</t>
+  </si>
+  <si>
+    <t>hunter13</t>
+  </si>
+  <si>
+    <t>hsk513kr</t>
+  </si>
+  <si>
+    <t>yskim0106</t>
+  </si>
+  <si>
+    <t>wpwpwp7</t>
+  </si>
+  <si>
+    <t>gbrh3737</t>
+  </si>
+  <si>
+    <t>spicula29</t>
+  </si>
+  <si>
+    <t>greendle</t>
+  </si>
+  <si>
+    <t>jangsr0215</t>
+  </si>
+  <si>
+    <t>janghr0308</t>
+  </si>
+  <si>
+    <t>lya1419</t>
+  </si>
+  <si>
+    <t>jeongin1124</t>
+  </si>
+  <si>
+    <t>jhlee0112</t>
+  </si>
+  <si>
+    <t>hepimj</t>
+  </si>
+  <si>
+    <t>sjj3088</t>
+  </si>
+  <si>
+    <t>koojh6807</t>
+  </si>
+  <si>
+    <t>sbin0035</t>
+  </si>
+  <si>
+    <t>yoonyoon0827</t>
+  </si>
+  <si>
+    <t>polo311</t>
+  </si>
+  <si>
+    <t>kimbu0809</t>
+  </si>
+  <si>
+    <t>kimbo0809</t>
+  </si>
+  <si>
+    <t>angel9372</t>
+  </si>
+  <si>
+    <t>skekalek</t>
+  </si>
+  <si>
+    <t>a007rr</t>
+  </si>
+  <si>
+    <t>drsj1004</t>
+  </si>
+  <si>
+    <t>kjw6843</t>
+  </si>
+  <si>
+    <t>ksk0202</t>
+  </si>
+  <si>
+    <t>hooo0804</t>
+  </si>
+  <si>
+    <t>chw130601</t>
+  </si>
+  <si>
+    <t>sophiepinky12</t>
+  </si>
+  <si>
+    <t>qogksqls0528</t>
+  </si>
+  <si>
+    <t>jangwy0510</t>
+  </si>
+  <si>
+    <t>blue227</t>
+  </si>
+  <si>
+    <t>goeun1212</t>
+  </si>
+  <si>
+    <t>bass7</t>
+  </si>
+  <si>
+    <t>secrecy326</t>
+  </si>
+  <si>
+    <t>Eunsul</t>
+  </si>
+  <si>
+    <t>car00c</t>
+  </si>
+  <si>
+    <t>ella</t>
+  </si>
+  <si>
+    <t>junny1005</t>
+  </si>
+  <si>
+    <t>timosi0402</t>
+  </si>
+  <si>
+    <t>eagaging82</t>
+  </si>
+  <si>
+    <t>lov3928</t>
+  </si>
+  <si>
+    <t>KimMinChan</t>
+  </si>
+  <si>
+    <t>fcfc439912</t>
+  </si>
+  <si>
+    <t>Moongch</t>
+  </si>
+  <si>
+    <t>swany123</t>
+  </si>
+  <si>
+    <t>honey121210</t>
+  </si>
+  <si>
+    <t>animan00</t>
+  </si>
+  <si>
+    <t>anchangmin</t>
+  </si>
+  <si>
+    <t>kjm0629</t>
+  </si>
+  <si>
+    <t>eogoT</t>
+  </si>
+  <si>
+    <t>ksyksy1</t>
+  </si>
+  <si>
+    <t>choisy8552</t>
+  </si>
+  <si>
+    <t>lcr0329</t>
+  </si>
+  <si>
+    <t>kne0579</t>
+  </si>
+  <si>
+    <t>ssamoo11</t>
+  </si>
+  <si>
+    <t>bakdoo12</t>
+  </si>
+  <si>
+    <t>hohoone</t>
+  </si>
+  <si>
+    <t>zeenat</t>
+  </si>
+  <si>
+    <t>Logan123</t>
+  </si>
+  <si>
+    <t>alswo</t>
+  </si>
+  <si>
+    <t>david0507</t>
+  </si>
+  <si>
+    <t>rosabell</t>
+  </si>
+  <si>
+    <t>aatkswjsaa</t>
+  </si>
+  <si>
+    <t>tklove12</t>
+  </si>
+  <si>
+    <t>pdy1029</t>
+  </si>
+  <si>
+    <t>lgy120517</t>
+  </si>
+  <si>
+    <t>lsj1211</t>
+  </si>
+  <si>
+    <t>jsw120329</t>
+  </si>
+  <si>
+    <t>jun1223</t>
+  </si>
+  <si>
+    <t>eujin0102</t>
+  </si>
+  <si>
+    <t>liam0801</t>
+  </si>
+  <si>
+    <t>adios3694</t>
+  </si>
+  <si>
+    <t>sj1113</t>
+  </si>
+  <si>
+    <t>VIP1</t>
+  </si>
+  <si>
+    <t>chys0610</t>
+  </si>
+  <si>
+    <t>mini1655</t>
+  </si>
+  <si>
+    <t>redmy99</t>
+  </si>
+  <si>
+    <t>suzy79</t>
+  </si>
+  <si>
+    <t>ing0090</t>
+  </si>
+  <si>
+    <t>bini1130</t>
+  </si>
+  <si>
+    <t>jaejjing</t>
+  </si>
+  <si>
+    <t>minjunkim12</t>
+  </si>
+  <si>
+    <t>lady2342</t>
+  </si>
+  <si>
+    <t>ysh20120204</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>ljh0306</t>
+  </si>
+  <si>
+    <t>bora1489</t>
+  </si>
+  <si>
+    <t>rayilrag</t>
+  </si>
+  <si>
+    <t>ltg0106</t>
+  </si>
+  <si>
+    <t>deigi10041</t>
+  </si>
+  <si>
+    <t>j012love</t>
+  </si>
+  <si>
+    <t>hdh8707</t>
+  </si>
+  <si>
+    <t>seoyul0413</t>
+  </si>
+  <si>
+    <t>evanmj0706</t>
+  </si>
+  <si>
+    <t>yu0808</t>
+  </si>
+  <si>
+    <t>ozminha</t>
+  </si>
+  <si>
+    <t>seoyeon0907</t>
+  </si>
+  <si>
+    <t>zzud80</t>
+  </si>
+  <si>
+    <t>dntdj04</t>
+  </si>
+  <si>
+    <t>Cabin303</t>
+  </si>
+  <si>
+    <t>seojuno</t>
+  </si>
+  <si>
+    <t>hee0823</t>
+  </si>
+  <si>
+    <t>lee6896</t>
+  </si>
+  <si>
+    <t>choiyy99</t>
+  </si>
+  <si>
+    <t>cjvl0521</t>
+  </si>
+  <si>
+    <t>wpguswl2</t>
+  </si>
+  <si>
+    <t>kkyhy100</t>
+  </si>
+  <si>
+    <t>limsh72</t>
+  </si>
+  <si>
+    <t>vivian26</t>
+  </si>
+  <si>
+    <t>song7971</t>
+  </si>
+  <si>
+    <t>peumi</t>
+  </si>
+  <si>
+    <t>cs3303</t>
+  </si>
+  <si>
+    <t>ksh1639</t>
+  </si>
+  <si>
+    <t>ggoma0208</t>
+  </si>
+  <si>
+    <t>limjw</t>
+  </si>
+  <si>
+    <t>ksy100321</t>
+  </si>
+  <si>
+    <t>gkeekrwlf</t>
+  </si>
+  <si>
+    <t>khw0624</t>
+  </si>
+  <si>
+    <t>kevin0410</t>
+  </si>
+  <si>
+    <t>hjzzang</t>
+  </si>
+  <si>
+    <t>bona0713</t>
+  </si>
+  <si>
+    <t>hanjuhy</t>
+  </si>
+  <si>
+    <t>kang1221</t>
+  </si>
+  <si>
+    <t>mp2680</t>
+  </si>
+  <si>
+    <t>Mertin</t>
+  </si>
+  <si>
+    <t>dhsmfdms041</t>
+  </si>
+  <si>
+    <t>ekwldekwld1</t>
+  </si>
+  <si>
+    <t>sjcycle73</t>
+  </si>
+  <si>
+    <t>ss7532ss</t>
+  </si>
+  <si>
+    <t>ysh0116</t>
+  </si>
+  <si>
+    <t>seohyunk2</t>
+  </si>
+  <si>
+    <t>MW_teacher01</t>
+  </si>
+  <si>
+    <t>안지수</t>
+  </si>
+  <si>
+    <t>송정원</t>
+  </si>
+  <si>
+    <t>최현우</t>
+  </si>
+  <si>
+    <t>서영민</t>
+  </si>
+  <si>
+    <t>노영주</t>
+  </si>
+  <si>
+    <t>김진운</t>
+  </si>
+  <si>
+    <t>MW_teacher02</t>
+  </si>
+  <si>
+    <t>박선재</t>
+  </si>
+  <si>
+    <t>황석희</t>
+  </si>
+  <si>
+    <t>최여준</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>이진성</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>류이준</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>전온유</t>
+  </si>
+  <si>
+    <t>박시은</t>
+  </si>
+  <si>
+    <t>권덕현</t>
+  </si>
+  <si>
+    <t>신인승</t>
+  </si>
+  <si>
+    <t>김혜서</t>
+  </si>
+  <si>
+    <t>나현우</t>
+  </si>
+  <si>
+    <t>이주훈</t>
+  </si>
+  <si>
+    <t>이윤찬</t>
+  </si>
+  <si>
+    <t>이나윤</t>
+  </si>
+  <si>
+    <t>김단우</t>
+  </si>
+  <si>
+    <t>손재민</t>
+  </si>
+  <si>
+    <t>황재영</t>
+  </si>
+  <si>
+    <t>전윤준</t>
+  </si>
+  <si>
+    <t>권하린</t>
+  </si>
+  <si>
+    <t>김주은</t>
+  </si>
+  <si>
+    <t>유강현</t>
+  </si>
+  <si>
+    <t>이건형</t>
+  </si>
+  <si>
+    <t>손지완</t>
+  </si>
+  <si>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>이현승</t>
+  </si>
+  <si>
+    <t>김규호</t>
+  </si>
+  <si>
+    <t>이도윤</t>
+  </si>
+  <si>
+    <t>김근호</t>
+  </si>
+  <si>
+    <t>함서윤</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>하연서</t>
+  </si>
+  <si>
+    <t>이도경</t>
+  </si>
+  <si>
+    <t>현정우</t>
+  </si>
+  <si>
+    <t>유준민</t>
+  </si>
+  <si>
+    <t>장서린</t>
+  </si>
+  <si>
+    <t>장혜린</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>허정인</t>
+  </si>
+  <si>
+    <t>이재희</t>
+  </si>
+  <si>
+    <t>김재현</t>
+  </si>
+  <si>
+    <t>신재진</t>
+  </si>
+  <si>
+    <t>구관오</t>
+  </si>
+  <si>
+    <t>홍성빈</t>
+  </si>
+  <si>
+    <t>변강윤</t>
+  </si>
+  <si>
+    <t>김민재</t>
+  </si>
+  <si>
+    <t>김부성</t>
+  </si>
+  <si>
+    <t>김보성</t>
+  </si>
+  <si>
+    <t>이찬영</t>
+  </si>
+  <si>
+    <t>권형준</t>
+  </si>
+  <si>
+    <t>강윤성</t>
+  </si>
+  <si>
+    <t>윤수진</t>
+  </si>
+  <si>
+    <t>김주원</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>곽현후</t>
+  </si>
+  <si>
+    <t>성소율</t>
+  </si>
+  <si>
+    <t>배한빈</t>
+  </si>
+  <si>
+    <t>장우영</t>
+  </si>
+  <si>
+    <t>이도영</t>
+  </si>
+  <si>
+    <t>최고은</t>
+  </si>
+  <si>
+    <t>신지환</t>
+  </si>
+  <si>
+    <t>김석민</t>
+  </si>
+  <si>
+    <t>조은설</t>
+  </si>
+  <si>
+    <t>김동환</t>
+  </si>
+  <si>
+    <t>이윤채</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>이지현</t>
+  </si>
+  <si>
+    <t>김은솔</t>
+  </si>
+  <si>
+    <t>박연아</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>정윤희</t>
+  </si>
+  <si>
+    <t>서예림</t>
+  </si>
+  <si>
+    <t>백새록</t>
+  </si>
+  <si>
+    <t>김재헌</t>
+  </si>
+  <si>
+    <t>박찬솔</t>
+  </si>
+  <si>
+    <t>안창민</t>
+  </si>
+  <si>
+    <t>곽지민</t>
+  </si>
+  <si>
+    <t>배민환</t>
+  </si>
+  <si>
+    <t>김시연</t>
+  </si>
+  <si>
+    <t>최시영</t>
+  </si>
+  <si>
+    <t>이채린</t>
+  </si>
+  <si>
+    <t>권나은</t>
+  </si>
+  <si>
+    <t>최수현</t>
+  </si>
+  <si>
+    <t>이병헌</t>
+  </si>
+  <si>
+    <t>김은호</t>
+  </si>
+  <si>
+    <t>지나트</t>
+  </si>
+  <si>
+    <t>김보승</t>
+  </si>
+  <si>
+    <t>양민재</t>
+  </si>
+  <si>
+    <t>임건우</t>
+  </si>
+  <si>
+    <t>이나현</t>
+  </si>
+  <si>
+    <t>이인우</t>
+  </si>
+  <si>
+    <t>이태경</t>
+  </si>
+  <si>
+    <t>박도윤</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>이서준</t>
+  </si>
+  <si>
+    <t>장성원</t>
+  </si>
+  <si>
+    <t>박준서</t>
+  </si>
+  <si>
+    <t>이유진</t>
+  </si>
+  <si>
+    <t>김락현</t>
+  </si>
+  <si>
+    <t>장지호</t>
+  </si>
+  <si>
+    <t>임서준</t>
+  </si>
+  <si>
+    <t>이도겸</t>
+  </si>
+  <si>
+    <t>최예슬</t>
+  </si>
+  <si>
+    <t>곽규민</t>
+  </si>
+  <si>
+    <t>김건휘</t>
+  </si>
+  <si>
+    <t>이수지</t>
+  </si>
+  <si>
+    <t>권려겸</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>이재영</t>
+  </si>
+  <si>
+    <t>김민준</t>
+  </si>
+  <si>
+    <t>이관용</t>
+  </si>
+  <si>
+    <t>윤성현</t>
+  </si>
+  <si>
+    <t>이은호</t>
+  </si>
+  <si>
+    <t>이정후</t>
+  </si>
+  <si>
+    <t>이서현</t>
+  </si>
+  <si>
+    <t>이태균</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>도연후</t>
+  </si>
+  <si>
+    <t>황도현</t>
+  </si>
+  <si>
+    <t>이서율</t>
+  </si>
+  <si>
+    <t>장연우</t>
+  </si>
+  <si>
+    <t>김민하</t>
+  </si>
+  <si>
+    <t>송서연</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>오서준</t>
+  </si>
+  <si>
+    <t>서건희</t>
+  </si>
+  <si>
+    <t>이동유</t>
+  </si>
+  <si>
+    <t>이혜림</t>
+  </si>
+  <si>
+    <t>김명준</t>
+  </si>
+  <si>
+    <t>제현지</t>
+  </si>
+  <si>
+    <t>김태우</t>
+  </si>
+  <si>
+    <t>구나율</t>
+  </si>
+  <si>
+    <t>박찬민</t>
+  </si>
+  <si>
+    <t>탁지원</t>
+  </si>
+  <si>
+    <t>안현진</t>
+  </si>
+  <si>
+    <t>김승호</t>
+  </si>
+  <si>
+    <t>김기연</t>
+  </si>
+  <si>
+    <t>임지훈</t>
+  </si>
+  <si>
+    <t>윤선우</t>
+  </si>
+  <si>
+    <t>곽현우</t>
+  </si>
+  <si>
+    <t>김연우</t>
+  </si>
+  <si>
+    <t>권현준</t>
+  </si>
+  <si>
+    <t>권도현</t>
+  </si>
+  <si>
+    <t>한주형</t>
+  </si>
+  <si>
+    <t>정강현</t>
+  </si>
+  <si>
+    <t>김민표</t>
+  </si>
+  <si>
+    <t>MW_teacher25</t>
+  </si>
+  <si>
+    <t>깅동현</t>
+  </si>
+  <si>
+    <t>정민재</t>
+  </si>
+  <si>
+    <t>김승현</t>
+  </si>
+  <si>
+    <t>문성분</t>
+  </si>
+  <si>
+    <t>성시찬</t>
+  </si>
+  <si>
+    <t>윤석현</t>
+  </si>
+  <si>
+    <t>권서현</t>
+  </si>
+  <si>
+    <t>TT_teacher01</t>
+  </si>
+  <si>
+    <t>yjhycw</t>
+  </si>
+  <si>
+    <t>유철웅</t>
+  </si>
+  <si>
+    <t>dbsdutk35</t>
+  </si>
+  <si>
+    <t>이시우</t>
+  </si>
+  <si>
+    <t>ummu</t>
+  </si>
+  <si>
+    <t>움무</t>
+  </si>
+  <si>
+    <t>cklee</t>
+  </si>
+  <si>
+    <t>이창국</t>
+  </si>
+  <si>
+    <t>Khadeejah2013</t>
+  </si>
+  <si>
+    <t>오울라비압둘하미드카디자</t>
+  </si>
+  <si>
+    <t>TT_teacher02</t>
+  </si>
+  <si>
+    <t>qqwwert</t>
+  </si>
+  <si>
+    <t>이아인</t>
+  </si>
+  <si>
+    <t>jmh130</t>
+  </si>
+  <si>
+    <t>전민환</t>
+  </si>
+  <si>
+    <t>songcg33</t>
+  </si>
+  <si>
+    <t>송찬규</t>
+  </si>
+  <si>
+    <t>gabang82</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>jaja3827</t>
+  </si>
+  <si>
+    <t>신우빈</t>
+  </si>
+  <si>
+    <t>daniel8830</t>
+  </si>
+  <si>
+    <t>전혜성</t>
+  </si>
+  <si>
+    <t>TT_teacher03</t>
+  </si>
+  <si>
+    <t>kdb0628</t>
+  </si>
+  <si>
+    <t>김동빈</t>
+  </si>
+  <si>
+    <t>ghdghd0715</t>
+  </si>
+  <si>
+    <t>이준홍</t>
+  </si>
+  <si>
+    <t>pqower5562</t>
+  </si>
+  <si>
+    <t>박승주</t>
+  </si>
+  <si>
+    <t>dldbfla1220</t>
+  </si>
+  <si>
+    <t>이유림</t>
+  </si>
+  <si>
+    <t>joy130123</t>
+  </si>
+  <si>
+    <t>김시후</t>
+  </si>
+  <si>
+    <t>bluesky5184</t>
+  </si>
+  <si>
+    <t>손성빈</t>
+  </si>
+  <si>
+    <t>djflsdhkdwk33</t>
+  </si>
+  <si>
+    <t>이성민</t>
+  </si>
+  <si>
+    <t>ksh147896</t>
+  </si>
+  <si>
+    <t>손준우</t>
+  </si>
+  <si>
+    <t>apple12</t>
+  </si>
+  <si>
+    <t>강은재</t>
+  </si>
+  <si>
+    <t>namu923</t>
+  </si>
+  <si>
+    <t>조세인</t>
+  </si>
+  <si>
+    <t>gusdk</t>
+  </si>
+  <si>
+    <t>조현아</t>
+  </si>
+  <si>
+    <t>thdud8360</t>
+  </si>
+  <si>
+    <t>김건우</t>
+  </si>
+  <si>
+    <t>coa0318</t>
+  </si>
+  <si>
+    <t>이예은</t>
+  </si>
+  <si>
+    <t>sgr31</t>
+  </si>
+  <si>
+    <t>서가람</t>
+  </si>
+  <si>
+    <t>arrow0623</t>
+  </si>
+  <si>
+    <t>조예빈</t>
+  </si>
+  <si>
+    <t>sangmin0805</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>khl0226</t>
+  </si>
+  <si>
+    <t>권하엘</t>
+  </si>
+  <si>
+    <t>lyk0820</t>
+  </si>
+  <si>
+    <t>이윤규</t>
+  </si>
+  <si>
+    <t>joohan1356</t>
+  </si>
+  <si>
+    <t>박주한</t>
+  </si>
+  <si>
+    <t>jjh0507</t>
+  </si>
+  <si>
+    <t>전지후</t>
+  </si>
+  <si>
+    <t>Heather09</t>
+  </si>
+  <si>
+    <t>임한슬</t>
+  </si>
+  <si>
+    <t>tnr3227</t>
+  </si>
+  <si>
+    <t>안성경</t>
+  </si>
+  <si>
+    <t>leomario</t>
+  </si>
+  <si>
+    <t>장률서</t>
+  </si>
+  <si>
+    <t>threens0721</t>
+  </si>
+  <si>
+    <t>sunnyrk</t>
+  </si>
+  <si>
+    <t>이려경</t>
+  </si>
+  <si>
+    <t>Jiyoon13</t>
+  </si>
+  <si>
+    <t>최지윤</t>
+  </si>
+  <si>
+    <t>skatmdgus134</t>
+  </si>
+  <si>
+    <t>남승현</t>
+  </si>
+  <si>
+    <t>dg1028</t>
+  </si>
+  <si>
+    <t>이도건</t>
+  </si>
+  <si>
+    <t>aaminary</t>
+  </si>
+  <si>
+    <t>강나은</t>
+  </si>
+  <si>
+    <t>khh0429</t>
+  </si>
+  <si>
+    <t>김학현</t>
+  </si>
+  <si>
+    <t>psj7477</t>
+  </si>
+  <si>
+    <t>박수진</t>
+  </si>
+  <si>
+    <t>hatsal1</t>
+  </si>
+  <si>
+    <t>길나경</t>
+  </si>
+  <si>
+    <t>ssjjzzang</t>
+  </si>
+  <si>
+    <t>하지민</t>
+  </si>
+  <si>
+    <t>hyjun0802</t>
+  </si>
+  <si>
+    <t>최현준</t>
+  </si>
+  <si>
+    <t>tonguri34</t>
+  </si>
+  <si>
+    <t>김다온</t>
+  </si>
+  <si>
+    <t>dojjing</t>
+  </si>
+  <si>
+    <t>이도형</t>
+  </si>
+  <si>
+    <t>kbs0826</t>
+  </si>
+  <si>
+    <t>김범서</t>
+  </si>
+  <si>
+    <t>sbinn</t>
+  </si>
+  <si>
+    <t>이성빈</t>
+  </si>
+  <si>
+    <t>seojin1126</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>rhs0693</t>
+  </si>
+  <si>
+    <t>이소윤</t>
+  </si>
+  <si>
+    <t>myh1914</t>
+  </si>
+  <si>
+    <t>문예후</t>
+  </si>
+  <si>
+    <t>gun00</t>
+  </si>
+  <si>
+    <t>김창건</t>
+  </si>
+  <si>
+    <t>zry0924</t>
+  </si>
+  <si>
+    <t>장루이</t>
+  </si>
+  <si>
+    <t>nice7556</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>shs7971</t>
+  </si>
+  <si>
+    <t>탁성호</t>
+  </si>
+  <si>
+    <t>mjmjkk</t>
+  </si>
+  <si>
+    <t>irene1310</t>
+  </si>
+  <si>
+    <t>손연서</t>
+  </si>
+  <si>
+    <t>yewon0313</t>
+  </si>
+  <si>
+    <t>김예원</t>
+  </si>
+  <si>
+    <t>kmh1639</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>rickwes1004</t>
+  </si>
+  <si>
+    <t>ggoma0507</t>
+  </si>
+  <si>
+    <t>김희정</t>
+  </si>
+  <si>
+    <t>pdk0612</t>
+  </si>
+  <si>
+    <t>박다경</t>
+  </si>
+  <si>
+    <t>chobab38</t>
+  </si>
+  <si>
+    <t>우정우</t>
+  </si>
+  <si>
+    <t>kyr1004</t>
+  </si>
+  <si>
+    <t>김예림</t>
+  </si>
+  <si>
+    <t>HS130224</t>
+  </si>
+  <si>
+    <t>이현서</t>
+  </si>
+  <si>
+    <t>aikm1219</t>
+  </si>
+  <si>
+    <t>정무경</t>
+  </si>
+  <si>
+    <t>dory6047</t>
+  </si>
+  <si>
+    <t>박예진</t>
+  </si>
+  <si>
+    <t>Soonmiso</t>
+  </si>
+  <si>
+    <t>김채율</t>
+  </si>
+  <si>
+    <t>sh791025</t>
+  </si>
+  <si>
+    <t>구현모</t>
+  </si>
+  <si>
+    <t>pgo0419</t>
+  </si>
+  <si>
+    <t>박건호</t>
+  </si>
+  <si>
+    <t>kdw405</t>
+  </si>
+  <si>
+    <t>김담원</t>
+  </si>
+  <si>
+    <t>sms3708</t>
+  </si>
+  <si>
+    <t>심민석</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>서승윤</t>
+  </si>
+  <si>
+    <t>white20v</t>
+  </si>
+  <si>
+    <t>손예림</t>
+  </si>
+  <si>
+    <t>rkddlfn</t>
+  </si>
+  <si>
+    <t>강이루</t>
+  </si>
+  <si>
+    <t>Suho11</t>
+  </si>
+  <si>
+    <t>천수호</t>
+  </si>
+  <si>
+    <t>jh99mong</t>
+  </si>
+  <si>
+    <t>김지훈</t>
+  </si>
+  <si>
+    <t>vmnw1004</t>
+  </si>
+  <si>
+    <t>최동희</t>
+  </si>
+  <si>
+    <t>taeyun1126</t>
+  </si>
+  <si>
+    <t>이태윤</t>
+  </si>
+  <si>
+    <t>sh0406</t>
+  </si>
+  <si>
+    <t>이성호</t>
+  </si>
+  <si>
+    <t>jse0227</t>
+  </si>
+  <si>
+    <t>조세은</t>
+  </si>
+  <si>
+    <t>hyunji0809</t>
+  </si>
+  <si>
+    <t>김현지</t>
+  </si>
+  <si>
+    <t>kimdaon8939</t>
+  </si>
+  <si>
+    <t>kdg0726</t>
+  </si>
+  <si>
+    <t>권동균</t>
+  </si>
+  <si>
+    <t>indi0605</t>
+  </si>
+  <si>
+    <t>이동현</t>
+  </si>
+  <si>
+    <t>sparrowsis12</t>
+  </si>
+  <si>
+    <t>이은기</t>
+  </si>
+  <si>
+    <t>jangheejae</t>
+  </si>
+  <si>
+    <t>장희재</t>
+  </si>
+  <si>
+    <t>royhh907</t>
+  </si>
+  <si>
+    <t>윤지후</t>
+  </si>
+  <si>
+    <t>skduddl9561</t>
+  </si>
+  <si>
+    <t>정도윤</t>
+  </si>
+  <si>
+    <t>sugiletter</t>
+  </si>
+  <si>
+    <t>박서연</t>
+  </si>
+  <si>
+    <t>ryusuhyeon0821</t>
+  </si>
+  <si>
+    <t>류수현</t>
+  </si>
+  <si>
+    <t>0625lys</t>
+  </si>
+  <si>
+    <t>이윤서</t>
+  </si>
+  <si>
+    <t>bitqlsjtm</t>
+  </si>
+  <si>
+    <t>김동혁</t>
+  </si>
+  <si>
+    <t>sssong</t>
+  </si>
+  <si>
+    <t>채희송</t>
+  </si>
+  <si>
+    <t>sunmibabs</t>
+  </si>
+  <si>
+    <t>백예준</t>
+  </si>
+  <si>
+    <t>yunu0o0</t>
+  </si>
+  <si>
+    <t>장윤우</t>
+  </si>
+  <si>
+    <t>Songbin12</t>
+  </si>
+  <si>
+    <t>박송빈</t>
+  </si>
+  <si>
+    <t>sostt577</t>
+  </si>
+  <si>
+    <t>이태건</t>
+  </si>
+  <si>
+    <t>sejin120328</t>
+  </si>
+  <si>
+    <t>김세진</t>
+  </si>
+  <si>
+    <t>yuri0813</t>
+  </si>
+  <si>
+    <t>이다율</t>
+  </si>
+  <si>
+    <t>Shinjh1025</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>kjy4568</t>
+  </si>
+  <si>
+    <t>김지예</t>
+  </si>
+  <si>
+    <t>byok1234</t>
+  </si>
+  <si>
+    <t>양지윤</t>
+  </si>
+  <si>
+    <t>best0508</t>
+  </si>
+  <si>
+    <t>조인우</t>
+  </si>
+  <si>
+    <t>kkksy0218</t>
+  </si>
+  <si>
+    <t>곽시연</t>
+  </si>
+  <si>
+    <t>namyh17</t>
+  </si>
+  <si>
+    <t>남이현</t>
+  </si>
+  <si>
+    <t>npcky2012</t>
+  </si>
+  <si>
+    <t>지수민</t>
+  </si>
+  <si>
+    <t>jdh08</t>
+  </si>
+  <si>
+    <t>정대현</t>
+  </si>
+  <si>
+    <t>Hjs0726</t>
+  </si>
+  <si>
+    <t>하준수</t>
+  </si>
+  <si>
+    <t>purin329</t>
+  </si>
+  <si>
+    <t>이영서</t>
+  </si>
+  <si>
+    <t>hajoon0308</t>
+  </si>
+  <si>
+    <t>오하준</t>
+  </si>
+  <si>
+    <t>icecutty</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>minyoung1006</t>
+  </si>
+  <si>
+    <t>aikm1218</t>
+  </si>
+  <si>
+    <t>정시우</t>
+  </si>
+  <si>
+    <t>wingnecklace</t>
+  </si>
+  <si>
+    <t>최에린</t>
+  </si>
+  <si>
+    <t>boguy12</t>
+  </si>
+  <si>
+    <t>정보규</t>
+  </si>
+  <si>
+    <t>minguy12</t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>ww777</t>
+  </si>
+  <si>
+    <t>우하윤</t>
+  </si>
+  <si>
+    <t>kim8282</t>
+  </si>
+  <si>
+    <t>김재영</t>
+  </si>
+  <si>
+    <t>you1535</t>
+  </si>
+  <si>
+    <t>정재환</t>
+  </si>
+  <si>
+    <t>dami0602</t>
+  </si>
+  <si>
+    <t>채현담</t>
+  </si>
+  <si>
+    <t>seungyoono610</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>ms1345</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>greeni102</t>
+  </si>
+  <si>
+    <t>권제인</t>
+  </si>
+  <si>
+    <t>Jun2011</t>
+  </si>
+  <si>
+    <t>siw3433</t>
+  </si>
+  <si>
+    <t>ykm132</t>
+  </si>
+  <si>
+    <t>유강민</t>
+  </si>
+  <si>
+    <t>spice619</t>
+  </si>
+  <si>
+    <t>sy0921</t>
+  </si>
+  <si>
+    <t>박성용</t>
+  </si>
+  <si>
+    <t>yu1504</t>
+  </si>
+  <si>
+    <t>khbb8318</t>
+  </si>
+  <si>
+    <t>김예온</t>
+  </si>
+  <si>
+    <t>kbs4040</t>
+  </si>
+  <si>
+    <t>김범수</t>
+  </si>
+  <si>
+    <t>wpghd1024</t>
+  </si>
+  <si>
+    <t>이제홍</t>
+  </si>
+  <si>
+    <t>godtyoos3380</t>
+  </si>
+  <si>
+    <t>강동윤</t>
+  </si>
+  <si>
+    <t>totoro1553</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>chosamw</t>
+  </si>
+  <si>
+    <t>jangkb1425</t>
+  </si>
+  <si>
+    <t>장기범</t>
+  </si>
+  <si>
+    <t>leonam007</t>
+  </si>
+  <si>
+    <t>남서진</t>
+  </si>
+  <si>
+    <t>hyo2011</t>
+  </si>
+  <si>
+    <t>박지효</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>양준영</t>
+  </si>
+  <si>
+    <t>remnantsj</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>jh9177</t>
+  </si>
+  <si>
+    <t>이제혁</t>
+  </si>
+  <si>
+    <t>ljh07</t>
+  </si>
+  <si>
+    <t>이주혁</t>
+  </si>
+  <si>
+    <t>do0310</t>
+  </si>
+  <si>
+    <t>scanf645</t>
+  </si>
+  <si>
+    <t>seti</t>
+  </si>
+  <si>
+    <t>최주현</t>
+  </si>
+  <si>
+    <t>hsj0326</t>
+  </si>
+  <si>
+    <t>홍세준</t>
+  </si>
+  <si>
+    <t>khlion02</t>
+  </si>
+  <si>
+    <t>최태양</t>
+  </si>
+  <si>
+    <t>im4960</t>
+  </si>
+  <si>
+    <t>임연오</t>
+  </si>
+  <si>
+    <t>yckim110525</t>
+  </si>
+  <si>
+    <t>김영찬</t>
+  </si>
+  <si>
+    <t>crab5</t>
+  </si>
+  <si>
+    <t>조현준</t>
+  </si>
+  <si>
+    <t>leal100212</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>a1234</t>
+  </si>
+  <si>
+    <t>fany29</t>
+  </si>
+  <si>
+    <t>이남현</t>
+  </si>
+  <si>
+    <t>kimmin101125</t>
+  </si>
+  <si>
+    <t>sh0926</t>
+  </si>
+  <si>
+    <t>신성호</t>
+  </si>
+  <si>
+    <t>kjhwan</t>
+  </si>
+  <si>
+    <t>김진환</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +2758,13 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -897,10 +2799,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -919,8 +2822,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,16 +3135,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1807C812-49C8-4B1F-A174-5CCCCB262BE4}">
-  <dimension ref="A1:Y52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
@@ -1298,8 +3202,17 @@
       <c r="Y1"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="F2" s="1" t="s">
-        <v>23</v>
+      <c r="A2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -1319,7 +3232,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
@@ -1331,8 +3244,17 @@
       <c r="Y2"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="F3" s="1" t="s">
-        <v>24</v>
+      <c r="A3" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
@@ -1341,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
@@ -1352,7 +3274,7 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R3"/>
       <c r="S3"/>
@@ -1364,8 +3286,17 @@
       <c r="Y3"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="F4" s="1" t="s">
-        <v>25</v>
+      <c r="A4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -1374,7 +3305,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
@@ -1383,12 +3314,21 @@
         <v>5</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="F5" s="1" t="s">
-        <v>23</v>
+      <c r="A5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1397,7 +3337,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
@@ -1406,12 +3346,21 @@
         <v>9</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="F6" s="1" t="s">
-        <v>24</v>
+      <c r="A6" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1420,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>16</v>
@@ -1429,12 +3378,21 @@
         <v>10</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="F7" s="1" t="s">
-        <v>25</v>
+      <c r="A7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
@@ -1443,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
@@ -1452,12 +3410,21 @@
         <v>11</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="F8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -1466,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>18</v>
@@ -1475,21 +3442,30 @@
         <v>12</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="F9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>19</v>
@@ -1498,12 +3474,21 @@
         <v>13</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="F10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
@@ -1512,7 +3497,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
@@ -1521,12 +3506,21 @@
         <v>14</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="F11" s="1" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -1535,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>21</v>
@@ -1544,1031 +3538,4436 @@
         <v>15</v>
       </c>
       <c r="Q11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="F12" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="F13" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="F14" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="F16" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17">
-      <c r="F17" s="1" t="s">
+      <c r="Q22" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17">
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="L23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17">
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="Q23" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17">
-      <c r="F20" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17">
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17">
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="K45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17">
-      <c r="F23" s="1" t="s">
+      <c r="Q45" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="6:17">
-      <c r="F24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17">
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17">
-      <c r="F26" s="1" t="s">
+      <c r="L46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="6:17">
-      <c r="F27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="6:17">
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="6:17">
-      <c r="F29" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="6:17">
-      <c r="F30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="6:17">
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="6:17">
-      <c r="F32" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17">
-      <c r="F33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17">
-      <c r="F34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="6:17">
-      <c r="F35" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17">
-      <c r="F36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17">
-      <c r="F37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17">
-      <c r="F38" s="1" t="s">
+      <c r="L50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="6:17">
-      <c r="F39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="6:17">
-      <c r="F40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="6:17">
-      <c r="F41" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="6:17">
-      <c r="F42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="6:17">
-      <c r="F43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="6:17">
-      <c r="F44" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="6:17">
-      <c r="F45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="6:17">
-      <c r="F46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="6:17">
-      <c r="F47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="6:17">
-      <c r="F48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="6:17">
-      <c r="F49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="6:17">
-      <c r="F50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="6:17">
-      <c r="F51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="6:17">
-      <c r="F52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{85D9AD69-E220-40AE-970F-9B86D1A4DDBE}"/>
-    <hyperlink ref="G14" r:id="rId2" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{08DDB022-524E-4AC5-83C7-21E1973873EE}"/>
-    <hyperlink ref="G15" r:id="rId3" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{31C4D32E-729F-4CC0-9770-87B90EC64FEA}"/>
-    <hyperlink ref="G16" r:id="rId4" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{E7B26D57-D929-4BB6-9D30-5439D0D1D953}"/>
-    <hyperlink ref="G17" r:id="rId5" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{77325675-10BB-413A-8A42-E6E708A9D9D6}"/>
-    <hyperlink ref="G18" r:id="rId6" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5CF8877F-5CD1-4F6A-A48E-F97BBA1CE37A}"/>
-    <hyperlink ref="G19" r:id="rId7" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{764484AD-A7DA-4C62-9807-492FEEE40A6E}"/>
-    <hyperlink ref="G20" r:id="rId8" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{2C058B80-6B9E-43CB-8A55-FE700B9A05DA}"/>
-    <hyperlink ref="G22" r:id="rId9" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{719FF935-6465-4493-A7A3-07D183555CB2}"/>
-    <hyperlink ref="G23" r:id="rId10" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{EFF6E1EE-FC99-4267-ACD8-57DA760FFE9D}"/>
-    <hyperlink ref="G24" r:id="rId11" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D2E12E08-6268-4B27-B4F7-96FF5ADD93DD}"/>
-    <hyperlink ref="G25" r:id="rId12" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D0725A3A-06C2-4576-8FA8-DE97EE1C14FB}"/>
-    <hyperlink ref="G26" r:id="rId13" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{74A55885-03B4-4DF0-B42F-46B600B6AAA0}"/>
-    <hyperlink ref="G27" r:id="rId14" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B3F02BCC-E9DE-49F9-A7E5-456321E56A10}"/>
-    <hyperlink ref="G28" r:id="rId15" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{0AF61754-9AEA-492B-82F0-B4F7C1154F70}"/>
-    <hyperlink ref="G29" r:id="rId16" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{A92F19E4-A737-415F-8F6D-012AC1BD8E13}"/>
-    <hyperlink ref="G30" r:id="rId17" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{E35FCA89-208D-42EC-B483-CEECDBE8D67A}"/>
-    <hyperlink ref="G31" r:id="rId18" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{1307E143-FBE7-46E2-9230-6A12E7FC471A}"/>
-    <hyperlink ref="G32" r:id="rId19" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{2FC22236-203D-415F-AF1D-DE4653DDFF99}"/>
-    <hyperlink ref="G33" r:id="rId20" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{465E2DEF-BE5B-43C3-9A50-1C2EA280DBD5}"/>
-    <hyperlink ref="G34" r:id="rId21" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{F5C038C0-BA70-48E1-9618-E6C9A44B34A3}"/>
-    <hyperlink ref="G35" r:id="rId22" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{4B04453C-CDAB-4442-A6CE-C5C98CFCA841}"/>
-    <hyperlink ref="G36" r:id="rId23" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{70CE7618-FA3B-4DD9-A249-90AE1C5DC4B7}"/>
-    <hyperlink ref="G37" r:id="rId24" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B96E292C-0828-4700-B0A3-B20CEBB4FB8F}"/>
-    <hyperlink ref="G38" r:id="rId25" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{1B8E64A2-E968-47D8-A339-AEDCFFC0FA19}"/>
-    <hyperlink ref="G39" r:id="rId26" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{EFF192BF-540D-4157-93D3-07B6DE2B0B13}"/>
-    <hyperlink ref="G40" r:id="rId27" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{FD89550C-6F7C-40BA-97A8-0EE0B97332A0}"/>
-    <hyperlink ref="G42" r:id="rId28" display="javascript:popMemReg('inspirebru')" xr:uid="{3250B369-0BD4-47E9-B560-F5D53A50BE9F}"/>
-    <hyperlink ref="G43" r:id="rId29" display="javascript:popMemReg('dopebruhni')" xr:uid="{43F9C44D-FC93-4C08-B1A1-542BC72CCBC9}"/>
-    <hyperlink ref="G44" r:id="rId30" display="javascript:popMemReg('epicghosti')" xr:uid="{332B6B3F-FFB9-4D43-A0E7-171117433BCE}"/>
-    <hyperlink ref="G45" r:id="rId31" display="javascript:popMemReg('sunshinebr')" xr:uid="{743CEEF4-7A93-40A2-A27D-8B454F273D62}"/>
-    <hyperlink ref="G46" r:id="rId32" display="javascript:popMemReg('nocapteen')" xr:uid="{0444EBA2-18D2-42CA-8D09-B7E21525B97A}"/>
-    <hyperlink ref="G47" r:id="rId33" display="javascript:popMemReg('nightgoani')" xr:uid="{9E89F209-C059-46BE-9AEB-4F8EB8B4CABA}"/>
-    <hyperlink ref="G48" r:id="rId34" display="javascript:popMemReg('maxsnatche')" xr:uid="{C25D69A0-E977-4C1C-A85C-59FE9139687E}"/>
-    <hyperlink ref="G49" r:id="rId35" display="javascript:popMemReg('freeguccia')" xr:uid="{6A2C0645-EBBA-439A-8AE1-2DF826123B45}"/>
-    <hyperlink ref="G50" r:id="rId36" display="javascript:popMemReg('chillreque')" xr:uid="{527A5018-564A-4EAC-BD08-D4315C518121}"/>
-    <hyperlink ref="G51" r:id="rId37" display="javascript:popMemReg('musicnatur')" xr:uid="{DF4A466A-9BD9-4323-B1C4-EF2844B0BF76}"/>
-    <hyperlink ref="G52" r:id="rId38" display="javascript:popMemReg('litdaygerk')" xr:uid="{FA9211BE-8F2A-499A-9DD9-86928BAF8A84}"/>
-    <hyperlink ref="L13" r:id="rId39" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B58CD81F-13E3-4BE2-86B8-6139471AF359}"/>
-    <hyperlink ref="L14" r:id="rId40" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{738BBA05-14A8-4354-ABA2-F898275D4880}"/>
-    <hyperlink ref="L15" r:id="rId41" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{33151983-16FC-4FF6-94E4-7809C78ABEC1}"/>
-    <hyperlink ref="L16" r:id="rId42" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{8B408ACF-DCE4-4975-8005-C0F5FBE3CB0B}"/>
-    <hyperlink ref="L17" r:id="rId43" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5DE45B68-3E93-4EFA-A3A0-394BBE99281D}"/>
-    <hyperlink ref="L18" r:id="rId44" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{4F52E48F-2047-485B-AFC2-D1E2A7C42EDD}"/>
-    <hyperlink ref="L19" r:id="rId45" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{17D0342F-5195-48E4-8037-8484269C1A7C}"/>
-    <hyperlink ref="L20" r:id="rId46" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{CFC9B93E-F2F0-4582-93BE-942FDBCDFD10}"/>
-    <hyperlink ref="L22" r:id="rId47" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B3F7CBD2-E8A9-49A9-9D61-C7D37159BDEA}"/>
-    <hyperlink ref="L23" r:id="rId48" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D2D75F51-D9F8-4951-899F-AA3365448928}"/>
-    <hyperlink ref="L24" r:id="rId49" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{313B6F88-485A-42AB-8256-509D38C0F72F}"/>
-    <hyperlink ref="L25" r:id="rId50" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D8CEFA9D-DFCC-4DD3-BAB8-98B03F7FBF79}"/>
-    <hyperlink ref="L26" r:id="rId51" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{0841A410-6798-425D-9894-EB8C75B68681}"/>
-    <hyperlink ref="L27" r:id="rId52" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5DA384CA-729B-4B72-8FF5-92ABD2715DE7}"/>
-    <hyperlink ref="L28" r:id="rId53" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{7F5FEE0A-C85E-405B-9E5F-2CF848887860}"/>
-    <hyperlink ref="L29" r:id="rId54" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{25081A2B-F01F-4D24-B8BC-7E622E061622}"/>
-    <hyperlink ref="L30" r:id="rId55" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{D4C5210B-B9A1-4BD9-BDA6-FF681D5AD7A0}"/>
-    <hyperlink ref="L31" r:id="rId56" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{DE5CF3BD-6539-4AFC-ACB0-FDA8D87D9E61}"/>
-    <hyperlink ref="L32" r:id="rId57" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{5C830084-413D-4863-8174-807D210F642C}"/>
-    <hyperlink ref="L33" r:id="rId58" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{BA4196ED-877D-4A69-9F7B-5C7D7650F3C2}"/>
-    <hyperlink ref="L34" r:id="rId59" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{3471A2DA-97FD-4A11-AB1E-D0185D4A1996}"/>
-    <hyperlink ref="L35" r:id="rId60" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{C10FBF00-DD96-4C84-A9E6-76C4895267E5}"/>
-    <hyperlink ref="L36" r:id="rId61" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{9FF61CFD-5BEF-40DB-B56D-9363ADA43AFE}"/>
-    <hyperlink ref="L37" r:id="rId62" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{B6DFAA22-9685-4917-9560-0546B2BFCFC5}"/>
-    <hyperlink ref="L38" r:id="rId63" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{52603870-8767-46C8-9195-1BB721751186}"/>
-    <hyperlink ref="L39" r:id="rId64" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{487B3ECD-7E7B-4914-BA22-EB29E63CE6D2}"/>
-    <hyperlink ref="L40" r:id="rId65" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{16D5FC54-593C-4BB0-8F38-C20CCCFA6D44}"/>
-    <hyperlink ref="L42" r:id="rId66" display="javascript:popMemReg('inspirebru')" xr:uid="{05E91C90-8F85-4EBE-B69F-B6C378BC35E2}"/>
-    <hyperlink ref="L43" r:id="rId67" display="javascript:popMemReg('dopebruhni')" xr:uid="{9FB43A9B-CED1-4D5F-8794-84E07834DA1D}"/>
-    <hyperlink ref="L44" r:id="rId68" display="javascript:popMemReg('epicghosti')" xr:uid="{C8C5E945-958D-4784-A10A-C34B3113B98A}"/>
-    <hyperlink ref="L45" r:id="rId69" display="javascript:popMemReg('sunshinebr')" xr:uid="{E909DFEF-CD0F-45DC-B79D-D0CBA3EB9962}"/>
-    <hyperlink ref="L46" r:id="rId70" display="javascript:popMemReg('nocapteen')" xr:uid="{649A666F-21DC-4866-97A9-DD28E0FB2EC2}"/>
-    <hyperlink ref="L47" r:id="rId71" display="javascript:popMemReg('nightgoani')" xr:uid="{CE9743AF-4BC7-4F50-AD96-7DF5DBF1BE25}"/>
-    <hyperlink ref="L48" r:id="rId72" display="javascript:popMemReg('maxsnatche')" xr:uid="{87668DD6-BE2C-467A-A94C-C0C3B4C19C60}"/>
-    <hyperlink ref="L49" r:id="rId73" display="javascript:popMemReg('freeguccia')" xr:uid="{95C79314-3B38-41F4-B08E-AC1CCECCE5E9}"/>
-    <hyperlink ref="L50" r:id="rId74" display="javascript:popMemReg('chillreque')" xr:uid="{6DB57F10-0C96-4FBB-ADCB-1567C9F2BC18}"/>
-    <hyperlink ref="L51" r:id="rId75" display="javascript:popMemReg('musicnatur')" xr:uid="{AEDECEAD-4887-4ABC-9895-BDFC7D050B13}"/>
-    <hyperlink ref="L52" r:id="rId76" display="javascript:popMemReg('litdaygerk')" xr:uid="{58DFDC9F-76B9-4945-98A2-34C5D8E9BD57}"/>
+    <hyperlink ref="G13" r:id="rId1" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G14" r:id="rId2" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G15" r:id="rId3" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G16" r:id="rId4" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G17" r:id="rId5" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G18" r:id="rId6" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G19" r:id="rId7" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G20" r:id="rId8" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G22" r:id="rId9" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G23" r:id="rId10" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G24" r:id="rId11" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G25" r:id="rId12" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G26" r:id="rId13" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G27" r:id="rId14" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G28" r:id="rId15" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G29" r:id="rId16" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G30" r:id="rId17" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G31" r:id="rId18" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G32" r:id="rId19" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G33" r:id="rId20" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G34" r:id="rId21" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G35" r:id="rId22" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G36" r:id="rId23" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G37" r:id="rId24" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G38" r:id="rId25" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G39" r:id="rId26" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G40" r:id="rId27" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G42" r:id="rId28" display="javascript:popMemReg('inspirebru')" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G43" r:id="rId29" display="javascript:popMemReg('dopebruhni')" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G44" r:id="rId30" display="javascript:popMemReg('epicghosti')" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G45" r:id="rId31" display="javascript:popMemReg('sunshinebr')" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G46" r:id="rId32" display="javascript:popMemReg('nocapteen')" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G47" r:id="rId33" display="javascript:popMemReg('nightgoani')" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G48" r:id="rId34" display="javascript:popMemReg('maxsnatche')" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G49" r:id="rId35" display="javascript:popMemReg('freeguccia')" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G50" r:id="rId36" display="javascript:popMemReg('chillreque')" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G51" r:id="rId37" display="javascript:popMemReg('musicnatur')" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G52" r:id="rId38" display="javascript:popMemReg('litdaygerk')" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L13" r:id="rId39" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L14" r:id="rId40" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L15" r:id="rId41" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L16" r:id="rId42" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L17" r:id="rId43" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L18" r:id="rId44" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L19" r:id="rId45" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L20" r:id="rId46" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L22" r:id="rId47" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L23" r:id="rId48" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L24" r:id="rId49" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L25" r:id="rId50" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L26" r:id="rId51" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L27" r:id="rId52" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L28" r:id="rId53" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L29" r:id="rId54" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L30" r:id="rId55" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L31" r:id="rId56" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L32" r:id="rId57" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L33" r:id="rId58" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L34" r:id="rId59" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L35" r:id="rId60" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L36" r:id="rId61" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L37" r:id="rId62" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L38" r:id="rId63" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L39" r:id="rId64" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L40" r:id="rId65" display="https://enozsw-bukgu.enoz.kr/Admin/Member/MemberList.asp" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L42" r:id="rId66" display="javascript:popMemReg('inspirebru')" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L43" r:id="rId67" display="javascript:popMemReg('dopebruhni')" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L44" r:id="rId68" display="javascript:popMemReg('epicghosti')" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L45" r:id="rId69" display="javascript:popMemReg('sunshinebr')" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L46" r:id="rId70" display="javascript:popMemReg('nocapteen')" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L47" r:id="rId71" display="javascript:popMemReg('nightgoani')" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L48" r:id="rId72" display="javascript:popMemReg('maxsnatche')" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L49" r:id="rId73" display="javascript:popMemReg('freeguccia')" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L50" r:id="rId74" display="javascript:popMemReg('chillreque')" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L51" r:id="rId75" display="javascript:popMemReg('musicnatur')" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L52" r:id="rId76" display="javascript:popMemReg('litdaygerk')" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>

--- a/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
+++ b/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worbs\OneDrive\문서\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE2B60-C134-4BA1-823F-CA1070471717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7297AF9C-B4AC-4419-B085-980CA0B3DCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41970" yWindow="1365" windowWidth="25485" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="D170" sqref="D164:D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
+++ b/프로젝트/파이썬/전산반배정매크로/반배정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\전산반배정매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A80C33-8CC4-493B-AB82-EE86FF535035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360A893-D205-4FA6-AA7E-2B95C841C782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33750" yWindow="0" windowWidth="23850" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2011,7 +2011,7 @@
         <v>171</v>
       </c>
       <c r="Q5" s="2">
-        <v>202405</v>
+        <v>202406</v>
       </c>
     </row>
     <row r="6" spans="1:24">
